--- a/biology/Médecine/Josué_de_Castro/Josué_de_Castro.xlsx
+++ b/biology/Médecine/Josué_de_Castro/Josué_de_Castro.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Josu%C3%A9_de_Castro</t>
+          <t>Josué_de_Castro</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Josué de Castro, né le 5 septembre 1908 à Recife (Pernambouc) et mort le 24 septembre 1973 à Paris, a été une personnalité brésilienne d'audience mondiale.
 Il fut médecin, expert en nutrition, enseignant, géographe, écrivain, homme politique. Fondateur de l'Institut de nutrition de l'université fédérale de Rio de Janeiro, Josué de Castro fut élu en 1952 président du conseil exécutif de la Organisation des Nations unies pour l'alimentation et l'agriculture (FAO). L'année suivante, l'Académie des sciences politiques des États-Unis lui décerna le prix Franklin Roosevelt et en 1954 le Conseil mondial de la paix lui décerna le prix international de la paix.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Josu%C3%A9_de_Castro</t>
+          <t>Josué_de_Castro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'âge de 20 ans, il est diplômé de la faculté de médecine de université fédérale de Rio de Janeiro. Trois années plus tard, en 1932, il devient enseignant en physiologie à la faculté de médecine de Recife.
 En 1935, il part à Rio de Janeiro, où il enseigne à l'ancienne université fédérale de Rio de Janeiro et devient professeur de géographie humaine à la faculté de philosophie de l'université fédérale de Rio de Janeiro. Au cours de cette période, est publié en 1937 son ouvrage L'alimentation brésilienne à la lumière de la géographie humaine.
-Il a vécu les phases importantes de l'histoire de son pays d'origine (division proposée par Boris Fausto, historien brésilien) avec le gouvernement de Getúlio Vargas, dictateur de la République des États-Unis du Brésil du 3 novembre 1930 au 29 octobre 1945. De 1945 à 1964, il vit une courte expérience démocratique. Il se déclare « Citoyen du Monde »[1],[2].
+Il a vécu les phases importantes de l'histoire de son pays d'origine (division proposée par Boris Fausto, historien brésilien) avec le gouvernement de Getúlio Vargas, dictateur de la République des États-Unis du Brésil du 3 novembre 1930 au 29 octobre 1945. De 1945 à 1964, il vit une courte expérience démocratique. Il se déclare « Citoyen du Monde »,.
 En 1964, la saisie du pouvoir par les militaires lui vaut d'être déchu de ses droits politiques à cause de ses prises de positions politiques, à savoir notamment le soutien d'une réforme agraire et est contraint de s'exiler (14 pays développés lui ont proposé l'asile politique). Jusqu'en 1973, il était depuis de nombreuses années président du Centre international pour le développement et de l' Association médicale internationale pour l'étude des conditions de vie et de santé.
 Il fut professeur associé au Centre universitaire expérimental de Vincennes (aujourd'hui université Paris VIII) à partir de 1968 jusqu'à son décès, où il a soutenu notamment l'introduction dans l'enseignement de l'écologie humaine dans sa dimension politique et scientifique.
 Josué de Castro est une figure historique qui a été le témoin des horreurs de la Seconde Guerre mondiale, et qui vécut intensément la bipolarisation du monde d'après-guerre, avec les États-Unis d'une part, et l'ex-URSS d'autre part.
